--- a/userDBX.xlsx
+++ b/userDBX.xlsx
@@ -1,43 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>4.1572014421232845e+17</t>
+  </si>
+  <si>
+    <t>한슌</t>
+  </si>
+  <si>
+    <t>6.886948936183972e+17</t>
+  </si>
+  <si>
+    <t>Dilo v2</t>
+  </si>
+  <si>
+    <t>4.726850270254858e+17</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>9.438774737147208e+17</t>
+  </si>
+  <si>
+    <t>eye_eye</t>
+  </si>
+  <si>
+    <t>6.99226357179351e+17</t>
+  </si>
+  <si>
+    <t>지우</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,87 +96,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,133 +404,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>4.1572014421232845e+17</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>한슌</t>
-        </is>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>6.886948936183972e+17</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Dilo v2</t>
-        </is>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4.726850270254858e+17</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>김준서</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>9.438774737147208e+17</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>eye_eye</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/userDBX.xlsx
+++ b/userDBX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>지우</t>
+  </si>
+  <si>
+    <t>mcname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +427,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -435,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -446,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -457,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -468,7 +475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>

--- a/userDBX.xlsx
+++ b/userDBX.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,23 @@
   </si>
   <si>
     <t>mcname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanson67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DILO_V2</t>
+  </si>
+  <si>
+    <t>younggare</t>
+  </si>
+  <si>
+    <t>R1ka_</t>
+  </si>
+  <si>
+    <t>Jiwoo_09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,7 +429,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,6 +458,9 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -452,6 +472,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -463,6 +486,9 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -474,6 +500,9 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -484,6 +513,9 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/userDBX.xlsx
+++ b/userDBX.xlsx
@@ -1,107 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>4.1572014421232845e+17</t>
-  </si>
-  <si>
-    <t>한슌</t>
-  </si>
-  <si>
-    <t>6.886948936183972e+17</t>
-  </si>
-  <si>
-    <t>Dilo v2</t>
-  </si>
-  <si>
-    <t>4.726850270254858e+17</t>
-  </si>
-  <si>
-    <t>김준서</t>
-  </si>
-  <si>
-    <t>9.438774737147208e+17</t>
-  </si>
-  <si>
-    <t>eye_eye</t>
-  </si>
-  <si>
-    <t>6.99226357179351e+17</t>
-  </si>
-  <si>
-    <t>지우</t>
-  </si>
-  <si>
-    <t>mcname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hanson67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DILO_V2</t>
-  </si>
-  <si>
-    <t>younggare</t>
-  </si>
-  <si>
-    <t>R1ka_</t>
-  </si>
-  <si>
-    <t>Jiwoo_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,25 +53,87 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -425,127 +423,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>mcname</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4.1572014421232845e+17</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>한슌</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>hanson67</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>6.886948936183972e+17</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Dilo v2</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>DILO_V2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>4.726850270254858e+17</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>김준서</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>younggare</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>9.438774737147208e+17</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>eye_eye</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>R1ka_</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>6.99226357179351e+17</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>지우</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>Jiwoo_09</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/userDBX.xlsx
+++ b/userDBX.xlsx
@@ -1,43 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mcname</t>
+  </si>
+  <si>
+    <t>6.886948936183972e+17</t>
+  </si>
+  <si>
+    <t>Dilo v2</t>
+  </si>
+  <si>
+    <t>DILO_V2</t>
+  </si>
+  <si>
+    <t>4.726850270254858e+17</t>
+  </si>
+  <si>
+    <t>김준서</t>
+  </si>
+  <si>
+    <t>younggare</t>
+  </si>
+  <si>
+    <t>9.438774737147208e+17</t>
+  </si>
+  <si>
+    <t>eye_eye</t>
+  </si>
+  <si>
+    <t>R1ka_</t>
+  </si>
+  <si>
+    <t>6.99226357179351e+17</t>
+  </si>
+  <si>
+    <t>지우</t>
+  </si>
+  <si>
+    <t>Jiwoo_09</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,87 +105,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -423,178 +413,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>score</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>mcname</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4.1572014421232845e+17</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>한슌</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>hanson67</t>
-        </is>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>6.886948936183972e+17</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>Dilo v2</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>DILO_V2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>4.726850270254858e+17</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>김준서</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>younggare</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>9.438774737147208e+17</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>eye_eye</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>R1ka_</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>6.99226357179351e+17</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>지우</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Jiwoo_09</t>
-        </is>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>